--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N2">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O2">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P2">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q2">
-        <v>1193.921077456359</v>
+        <v>922.4530696298028</v>
       </c>
       <c r="R2">
-        <v>10745.28969710723</v>
+        <v>8302.077626668226</v>
       </c>
       <c r="S2">
-        <v>0.02630702968799481</v>
+        <v>0.01426178133046443</v>
       </c>
       <c r="T2">
-        <v>0.02735562209759427</v>
+        <v>0.01487748176706342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
         <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P3">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q3">
-        <v>2111.03840573413</v>
+        <v>1486.761148232924</v>
       </c>
       <c r="R3">
-        <v>18999.34565160717</v>
+        <v>13380.85033409632</v>
       </c>
       <c r="S3">
-        <v>0.04651492553466119</v>
+        <v>0.02298638606648865</v>
       </c>
       <c r="T3">
-        <v>0.0483690002221957</v>
+        <v>0.0239787395186299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N4">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O4">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P4">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q4">
-        <v>1575.373611476846</v>
+        <v>1206.321907763773</v>
       </c>
       <c r="R4">
-        <v>14178.36250329162</v>
+        <v>10856.89716987396</v>
       </c>
       <c r="S4">
-        <v>0.03471200998905211</v>
+        <v>0.01865059570952483</v>
       </c>
       <c r="T4">
-        <v>0.0360956230623696</v>
+        <v>0.01945576721335771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N5">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O5">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P5">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q5">
-        <v>519.7366880825715</v>
+        <v>424.1812822540054</v>
       </c>
       <c r="R5">
-        <v>3118.420128495429</v>
+        <v>2545.087693524032</v>
       </c>
       <c r="S5">
-        <v>0.01145195335059999</v>
+        <v>0.006558144680910915</v>
       </c>
       <c r="T5">
-        <v>0.007938950459345725</v>
+        <v>0.004560845785680397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N6">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O6">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P6">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q6">
-        <v>1498.342403684897</v>
+        <v>1340.238863324548</v>
       </c>
       <c r="R6">
-        <v>13485.08163316407</v>
+        <v>12062.14976992093</v>
       </c>
       <c r="S6">
-        <v>0.03301469321615263</v>
+        <v>0.02072104720405536</v>
       </c>
       <c r="T6">
-        <v>0.03433065161671318</v>
+        <v>0.02161560290608909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N7">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O7">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P7">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q7">
-        <v>356.1162187617439</v>
+        <v>390.6747521007893</v>
       </c>
       <c r="R7">
-        <v>3205.045968855695</v>
+        <v>3516.072768907104</v>
       </c>
       <c r="S7">
-        <v>0.007846716266456139</v>
+        <v>0.006040109864917993</v>
       </c>
       <c r="T7">
-        <v>0.008159484648704987</v>
+        <v>0.006300869597153685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N8">
         <v>124.30001</v>
       </c>
       <c r="O8">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P8">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q8">
-        <v>629.6689361683021</v>
+        <v>629.668936168302</v>
       </c>
       <c r="R8">
         <v>5667.020425514719</v>
       </c>
       <c r="S8">
-        <v>0.01387421640354877</v>
+        <v>0.009735130137105412</v>
       </c>
       <c r="T8">
-        <v>0.01442723961378754</v>
+        <v>0.01015540890431384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N9">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O9">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P9">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q9">
-        <v>469.8937846473138</v>
+        <v>510.8980909549103</v>
       </c>
       <c r="R9">
-        <v>4229.044061825824</v>
+        <v>4598.082818594192</v>
       </c>
       <c r="S9">
-        <v>0.01035370760792433</v>
+        <v>0.007898848294011086</v>
       </c>
       <c r="T9">
-        <v>0.0107664041129135</v>
+        <v>0.008239852284365598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N10">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O10">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P10">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q10">
-        <v>155.024203531144</v>
+        <v>179.6480739739787</v>
       </c>
       <c r="R10">
-        <v>930.1452211868638</v>
+        <v>1077.888443843872</v>
       </c>
       <c r="S10">
-        <v>0.003415825720524332</v>
+        <v>0.002777487150087971</v>
       </c>
       <c r="T10">
-        <v>0.002367986520970312</v>
+        <v>0.001931596690773321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N11">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O11">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P11">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q11">
-        <v>446.9173392494631</v>
+        <v>567.6142265918097</v>
       </c>
       <c r="R11">
-        <v>4022.256053245168</v>
+        <v>5108.528039326287</v>
       </c>
       <c r="S11">
-        <v>0.00984744128712731</v>
+        <v>0.008775720138219961</v>
       </c>
       <c r="T11">
-        <v>0.01023995812806775</v>
+        <v>0.009154579874978849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N12">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O12">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P12">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q12">
-        <v>2911.6142103363</v>
+        <v>4568.17039826238</v>
       </c>
       <c r="R12">
-        <v>26204.5278930267</v>
+        <v>41113.53358436142</v>
       </c>
       <c r="S12">
-        <v>0.06415492859418455</v>
+        <v>0.07062716732729249</v>
       </c>
       <c r="T12">
-        <v>0.06671212991870192</v>
+        <v>0.07367623789930272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N13">
         <v>124.30001</v>
       </c>
       <c r="O13">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P13">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q13">
-        <v>5148.187377507667</v>
+        <v>7362.735829335899</v>
       </c>
       <c r="R13">
-        <v>46333.68639756901</v>
+        <v>66264.62246402309</v>
       </c>
       <c r="S13">
-        <v>0.1134359052174492</v>
+        <v>0.1138331388870601</v>
       </c>
       <c r="T13">
-        <v>0.1179574354167078</v>
+        <v>0.1187474698312938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N14">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O14">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P14">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q14">
-        <v>3841.862146815534</v>
+        <v>5973.945137429491</v>
       </c>
       <c r="R14">
-        <v>34576.75932133981</v>
+        <v>53765.50623686542</v>
       </c>
       <c r="S14">
-        <v>0.08465214616093752</v>
+        <v>0.09236144583962698</v>
       </c>
       <c r="T14">
-        <v>0.08802636206343344</v>
+        <v>0.09634881468301959</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N15">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O15">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P15">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q15">
-        <v>1267.48137312255</v>
+        <v>2100.62976739551</v>
       </c>
       <c r="R15">
-        <v>7604.8882387353</v>
+        <v>12603.77860437306</v>
       </c>
       <c r="S15">
-        <v>0.02792786788114489</v>
+        <v>0.0324772320513629</v>
       </c>
       <c r="T15">
-        <v>0.01936071102943723</v>
+        <v>0.02258621212843518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N16">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O16">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P16">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q16">
-        <v>3654.006212716234</v>
+        <v>6637.12843895361</v>
       </c>
       <c r="R16">
-        <v>32886.05591444611</v>
+        <v>59734.15595058248</v>
       </c>
       <c r="S16">
-        <v>0.08051290134088206</v>
+        <v>0.1026147319305369</v>
       </c>
       <c r="T16">
-        <v>0.08372212785646269</v>
+        <v>0.1070447490361955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N17">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O17">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P17">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q17">
-        <v>319.4956480901849</v>
+        <v>516.049243546424</v>
       </c>
       <c r="R17">
-        <v>1916.97388854111</v>
+        <v>3096.295461278544</v>
       </c>
       <c r="S17">
-        <v>0.007039813316136771</v>
+        <v>0.007978488781184604</v>
       </c>
       <c r="T17">
-        <v>0.004880279149663496</v>
+        <v>0.005548620639566282</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N18">
         <v>124.30001</v>
       </c>
       <c r="O18">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P18">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q18">
-        <v>564.91806394795</v>
+        <v>831.7409211806532</v>
       </c>
       <c r="R18">
-        <v>3389.5083836877</v>
+        <v>4990.44552708392</v>
       </c>
       <c r="S18">
-        <v>0.01244748632064123</v>
+        <v>0.01285930691979594</v>
       </c>
       <c r="T18">
-        <v>0.008629093589328753</v>
+        <v>0.008942973756378883</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N19">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O19">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P19">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q19">
-        <v>421.5731026838901</v>
+        <v>674.8543947333854</v>
       </c>
       <c r="R19">
-        <v>2529.43861610334</v>
+        <v>4049.126368400312</v>
       </c>
       <c r="S19">
-        <v>0.009289002713305863</v>
+        <v>0.01043372950284941</v>
       </c>
       <c r="T19">
-        <v>0.006439506877121501</v>
+        <v>0.007256111834573042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N20">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O20">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P20">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q20">
-        <v>139.0825684633725</v>
+        <v>237.300343009948</v>
       </c>
       <c r="R20">
-        <v>556.3302738534899</v>
+        <v>949.2013720397921</v>
       </c>
       <c r="S20">
-        <v>0.003064565427929009</v>
+        <v>0.003668832283262143</v>
       </c>
       <c r="T20">
-        <v>0.001416319258203368</v>
+        <v>0.00170098699877622</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N21">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O21">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P21">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q21">
-        <v>400.959398711855</v>
+        <v>749.7717492204947</v>
       </c>
       <c r="R21">
-        <v>2405.75639227113</v>
+        <v>4498.630495322968</v>
       </c>
       <c r="S21">
-        <v>0.008834797378789786</v>
+        <v>0.0115920051514749</v>
       </c>
       <c r="T21">
-        <v>0.006124633637709923</v>
+        <v>0.008061631820441371</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N22">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O22">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P22">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q22">
-        <v>3073.565161885336</v>
+        <v>4692.767335804829</v>
       </c>
       <c r="R22">
-        <v>27662.08645696802</v>
+        <v>42234.90602224346</v>
       </c>
       <c r="S22">
-        <v>0.06772337928229566</v>
+        <v>0.07255352470652378</v>
       </c>
       <c r="T22">
-        <v>0.0704228182653386</v>
+        <v>0.07568575873841016</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N23">
         <v>124.30001</v>
       </c>
       <c r="O23">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P23">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q23">
-        <v>5434.541882022811</v>
+        <v>7563.554594025206</v>
       </c>
       <c r="R23">
-        <v>48910.8769382053</v>
+        <v>68071.99134622686</v>
       </c>
       <c r="S23">
-        <v>0.1197454817831132</v>
+        <v>0.1169379399911448</v>
       </c>
       <c r="T23">
-        <v>0.1245185103146811</v>
+        <v>0.1219863094086269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N24">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O24">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P24">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q24">
-        <v>4055.555715210755</v>
+        <v>6136.884608657062</v>
       </c>
       <c r="R24">
-        <v>36500.0014368968</v>
+        <v>55231.96147791356</v>
       </c>
       <c r="S24">
-        <v>0.08936070115176113</v>
+        <v>0.09488060609314719</v>
       </c>
       <c r="T24">
-        <v>0.09292259901919635</v>
+        <v>0.09897673050023942</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N25">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O25">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P25">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q25">
-        <v>1337.981720908724</v>
+        <v>2157.924485654606</v>
       </c>
       <c r="R25">
-        <v>8027.890325452344</v>
+        <v>12947.54691392764</v>
       </c>
       <c r="S25">
-        <v>0.02948128274017072</v>
+        <v>0.03336304919491657</v>
       </c>
       <c r="T25">
-        <v>0.02043760011822936</v>
+        <v>0.02320225150887457</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N26">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O26">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P26">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q26">
-        <v>3857.250784409382</v>
+        <v>6818.156247785799</v>
       </c>
       <c r="R26">
-        <v>34715.25705968444</v>
+        <v>61363.40623007219</v>
       </c>
       <c r="S26">
-        <v>0.08499122162721677</v>
+        <v>0.1054135507640348</v>
       </c>
       <c r="T26">
-        <v>0.08837895300312183</v>
+        <v>0.1099643966734604</v>
       </c>
     </row>
   </sheetData>
